--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H2">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I2">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J2">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.098778</v>
+        <v>0.7285076666666667</v>
       </c>
       <c r="N2">
-        <v>6.296334</v>
+        <v>2.185523</v>
       </c>
       <c r="O2">
-        <v>0.3165022962792946</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="P2">
-        <v>0.3165022962792947</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="Q2">
-        <v>1.174874237027333</v>
+        <v>0.03161213317966666</v>
       </c>
       <c r="R2">
-        <v>10.573868133246</v>
+        <v>0.284509198617</v>
       </c>
       <c r="S2">
-        <v>0.1556822144006281</v>
+        <v>0.009665929335881833</v>
       </c>
       <c r="T2">
-        <v>0.1556822144006281</v>
+        <v>0.009665929335881833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H3">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I3">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J3">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.7531</v>
       </c>
       <c r="O3">
-        <v>0.5405337204349202</v>
+        <v>0.6813230330092965</v>
       </c>
       <c r="P3">
-        <v>0.5405337204349203</v>
+        <v>0.6813230330092966</v>
       </c>
       <c r="Q3">
-        <v>2.006491421544445</v>
+        <v>0.1555364227666666</v>
       </c>
       <c r="R3">
-        <v>18.0584227939</v>
+        <v>1.3998278049</v>
       </c>
       <c r="S3">
-        <v>0.2658795450926513</v>
+        <v>0.0475578178503136</v>
       </c>
       <c r="T3">
-        <v>0.2658795450926514</v>
+        <v>0.04755781785031361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H4">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I4">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J4">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.844052</v>
       </c>
       <c r="O4">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="P4">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="Q4">
-        <v>0.5306903070208889</v>
+        <v>0.04113731614533333</v>
       </c>
       <c r="R4">
-        <v>4.776212763188</v>
+        <v>0.370235845308</v>
       </c>
       <c r="S4">
-        <v>0.07032160511664964</v>
+        <v>0.01257841059534647</v>
       </c>
       <c r="T4">
-        <v>0.07032160511664964</v>
+        <v>0.01257841059534647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.098778</v>
+        <v>0.7285076666666667</v>
       </c>
       <c r="N5">
-        <v>6.296334</v>
+        <v>2.185523</v>
       </c>
       <c r="O5">
-        <v>0.3165022962792946</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="P5">
-        <v>0.3165022962792947</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="Q5">
-        <v>0.8826166021566665</v>
+        <v>0.3063653999605555</v>
       </c>
       <c r="R5">
-        <v>7.943549419409999</v>
+        <v>2.757288599645</v>
       </c>
       <c r="S5">
-        <v>0.116955247429867</v>
+        <v>0.0936762568393409</v>
       </c>
       <c r="T5">
-        <v>0.116955247429867</v>
+        <v>0.0936762568393409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.261615</v>
       </c>
       <c r="I6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.7531</v>
       </c>
       <c r="O6">
-        <v>0.5405337204349202</v>
+        <v>0.6813230330092965</v>
       </c>
       <c r="P6">
-        <v>0.5405337204349203</v>
+        <v>0.6813230330092966</v>
       </c>
       <c r="Q6">
         <v>1.507363584055555</v>
@@ -818,10 +818,10 @@
         <v>13.5662722565</v>
       </c>
       <c r="S6">
-        <v>0.1997402728537118</v>
+        <v>0.4609011927209719</v>
       </c>
       <c r="T6">
-        <v>0.1997402728537119</v>
+        <v>0.4609011927209719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.261615</v>
       </c>
       <c r="I7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.844052</v>
       </c>
       <c r="O7">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="P7">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="Q7">
         <v>0.3986776293311111</v>
@@ -880,10 +880,10 @@
         <v>3.58809866398</v>
       </c>
       <c r="S7">
-        <v>0.05282864685440896</v>
+        <v>0.1219022383275953</v>
       </c>
       <c r="T7">
-        <v>0.05282864685440896</v>
+        <v>0.1219022383275953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.473177</v>
       </c>
       <c r="I8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.098778</v>
+        <v>0.7285076666666667</v>
       </c>
       <c r="N8">
-        <v>6.296334</v>
+        <v>2.185523</v>
       </c>
       <c r="O8">
-        <v>0.3165022962792946</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="P8">
-        <v>0.3165022962792947</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="Q8">
-        <v>0.3310311592353333</v>
+        <v>0.1149043573967778</v>
       </c>
       <c r="R8">
-        <v>2.979280433118</v>
+        <v>1.034139216571</v>
       </c>
       <c r="S8">
-        <v>0.04386483444879951</v>
+        <v>0.0351338959844872</v>
       </c>
       <c r="T8">
-        <v>0.04386483444879951</v>
+        <v>0.0351338959844872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.473177</v>
       </c>
       <c r="I9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>10.7531</v>
       </c>
       <c r="O9">
-        <v>0.5405337204349202</v>
+        <v>0.6813230330092965</v>
       </c>
       <c r="P9">
-        <v>0.5405337204349203</v>
+        <v>0.6813230330092966</v>
       </c>
       <c r="Q9">
         <v>0.5653466220777777</v>
@@ -1004,10 +1004,10 @@
         <v>5.088119598700001</v>
       </c>
       <c r="S9">
-        <v>0.07491390248855699</v>
+        <v>0.1728640224380111</v>
       </c>
       <c r="T9">
-        <v>0.07491390248855699</v>
+        <v>0.1728640224380111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.473177</v>
       </c>
       <c r="I10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.844052</v>
       </c>
       <c r="O10">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="P10">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="Q10">
         <v>0.1495266659115556</v>
@@ -1066,10 +1066,10 @@
         <v>1.345739993204</v>
       </c>
       <c r="S10">
-        <v>0.0198137313147265</v>
+        <v>0.04572023590805166</v>
       </c>
       <c r="T10">
-        <v>0.0198137313147265</v>
+        <v>0.04572023590805166</v>
       </c>
     </row>
   </sheetData>
